--- a/rhla_analysis/rhla1_6_zipf_result/k9.xlsx
+++ b/rhla_analysis/rhla1_6_zipf_result/k9.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5004526961410954</v>
+        <v>0.500452696141095</v>
       </c>
       <c r="B2" t="n">
         <v>38.18814786565327</v>
@@ -466,26 +466,26 @@
         <v>0.1887304820095044</v>
       </c>
       <c r="D2" t="n">
-        <v>76.30720777431215</v>
+        <v>76.3072077743122</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.5045435094566273</v>
+        <v>0.504543509456632</v>
       </c>
       <c r="B3" t="n">
-        <v>77.16412280326972</v>
+        <v>77.16412280326971</v>
       </c>
       <c r="C3" t="n">
         <v>0.196877121520706</v>
       </c>
       <c r="D3" t="n">
-        <v>152.9384906494433</v>
+        <v>152.9384906494419</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.4343200509125493</v>
+        <v>0.43432005091255</v>
       </c>
       <c r="B4" t="n">
         <v>77.96679567163376</v>
@@ -494,12 +494,12 @@
         <v>0.1921249151391718</v>
       </c>
       <c r="D4" t="n">
-        <v>179.5146125715767</v>
+        <v>179.5146125715764</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.07585800152442</v>
+        <v>1.075858001524426</v>
       </c>
       <c r="B5" t="n">
         <v>74.1133768027892</v>
@@ -508,12 +508,12 @@
         <v>0.1843177189409369</v>
       </c>
       <c r="D5" t="n">
-        <v>68.88769400587755</v>
+        <v>68.88769400587718</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.175833682230636</v>
+        <v>1.17583368223064</v>
       </c>
       <c r="B6" t="n">
         <v>126.3735745166559</v>
@@ -522,12 +522,12 @@
         <v>0.1608961303462322</v>
       </c>
       <c r="D6" t="n">
-        <v>107.4757224822108</v>
+        <v>107.4757224822105</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.5611038687267449</v>
+        <v>0.561103868726745</v>
       </c>
       <c r="B7" t="n">
         <v>35.2148082677561</v>
@@ -536,12 +536,12 @@
         <v>0.2019687712152071</v>
       </c>
       <c r="D7" t="n">
-        <v>62.75987429504885</v>
+        <v>62.75987429504883</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.395255360489647</v>
+        <v>0.3952553604896486</v>
       </c>
       <c r="B8" t="n">
         <v>49.11020674017568</v>
@@ -550,26 +550,26 @@
         <v>0.1883910386965377</v>
       </c>
       <c r="D8" t="n">
-        <v>124.2493123416147</v>
+        <v>124.2493123416142</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.4329919184504215</v>
+        <v>0.4329919184504202</v>
       </c>
       <c r="B9" t="n">
-        <v>80.40093754988372</v>
+        <v>80.40093754988374</v>
       </c>
       <c r="C9" t="n">
         <v>0.175152749490835</v>
       </c>
       <c r="D9" t="n">
-        <v>185.6869242216349</v>
+        <v>185.6869242216355</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1468112325259932</v>
+        <v>0.1468112325259929</v>
       </c>
       <c r="B10" t="n">
         <v>12.20651113144544</v>
@@ -578,12 +578,12 @@
         <v>0.1785471826205024</v>
       </c>
       <c r="D10" t="n">
-        <v>83.14425893321378</v>
+        <v>83.14425893321396</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9669571207838381</v>
+        <v>0.9669571207838427</v>
       </c>
       <c r="B11" t="n">
         <v>206.4765495261582</v>
@@ -592,7 +592,7 @@
         <v>0.1832993890020367</v>
       </c>
       <c r="D11" t="n">
-        <v>213.5322705507184</v>
+        <v>213.5322705507173</v>
       </c>
     </row>
   </sheetData>
